--- a/md/Leetcode刷题记录.xlsx
+++ b/md/Leetcode刷题记录.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\LeetCode_Note\md\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457B37CD-F74F-4F53-AB1B-2F431148A439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA161F2-9BBC-4AAA-9755-36E911580B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="1515" windowWidth="29040" windowHeight="15720" xr2:uid="{3A6D09B9-D706-40BD-9B8D-E037CC279906}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{3A6D09B9-D706-40BD-9B8D-E037CC279906}"/>
   </bookViews>
   <sheets>
     <sheet name="Leetcode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Leetcode!$F$5:$P$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Leetcode!$F$5:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二叉树，中序递归+遍历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode.cn/problems/sum-of-left-leaves/description/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,81 +100,150 @@
   </si>
   <si>
     <t>有思路写出代码跑不通,存在逻辑错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左叶子之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Side TAG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Side TAG2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Side TAG:次要思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main TAG1：设计的主要思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路经总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，前序递归+迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，中序递归+迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/path-sum/submissions/569219077/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有思路写出代码跑不通,存在逻辑错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>easy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左叶子之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪心算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回溯算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main TAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Side TAG1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Side TAG2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Side TAG:次要思想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main TAG1：设计的主要思想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队列</t>
+    <t>Y神解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acwing.com/video/1467/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acwing.com/video/1468/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/path-sum-ii/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Midea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从前序和中序遍历构建二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，前序递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，前序递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acwing.com/activity/content/problem/content/2458/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acwing.com/activity/content/problem/content/2459/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/description/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/construct-binary-tree-from-inorder-and-postorder-traversal/description/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,16 +342,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -624,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935A31F9-C25C-4E01-BFA4-CF74847587DC}">
-  <dimension ref="D1:V31"/>
+  <dimension ref="D1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -635,19 +697,21 @@
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.4140625" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="11.25" style="5" customWidth="1"/>
-    <col min="10" max="11" width="20.1640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="29.08203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="53.83203125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="25" style="5" customWidth="1"/>
-    <col min="15" max="15" width="39.33203125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="31.4140625" style="5" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="31.25" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" customWidth="1"/>
+    <col min="11" max="11" width="30.08203125" customWidth="1"/>
+    <col min="12" max="12" width="29.08203125" customWidth="1"/>
+    <col min="13" max="13" width="53.83203125" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="56.25" customWidth="1"/>
+    <col min="16" max="16" width="43.9140625" customWidth="1"/>
+    <col min="17" max="17" width="31.4140625" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="23" max="23" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:23" x14ac:dyDescent="0.3">
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -659,8 +723,9 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="4:23" x14ac:dyDescent="0.3">
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -672,59 +737,62 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="4:23" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>1</v>
@@ -739,125 +807,213 @@
         <v>4</v>
       </c>
       <c r="P5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:23" x14ac:dyDescent="0.3">
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2">
         <v>404</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="W6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>112</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>112</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U6" t="s">
-        <v>22</v>
-      </c>
-      <c r="V6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="U7" t="s">
-        <v>23</v>
-      </c>
-      <c r="V7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="U8" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+    </row>
+    <row r="9" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="J9" s="2">
+        <v>105</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="U9" t="s">
-        <v>24</v>
+      <c r="P9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>10</v>
       </c>
       <c r="V9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+    <row r="10" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="J10" s="2">
+        <v>106</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="U10" t="s">
-        <v>25</v>
+      <c r="P10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>10</v>
       </c>
       <c r="V10" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:23" x14ac:dyDescent="0.3">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -869,11 +1025,12 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="U11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="Q11" s="2"/>
+      <c r="V11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="4:23" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -885,11 +1042,12 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="U12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="Q12" s="2"/>
+      <c r="V12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="4:23" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -899,13 +1057,12 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="U13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="Q13" s="2"/>
+      <c r="V13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="4:23" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -917,11 +1074,12 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="U14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="Q14" s="2"/>
+      <c r="V14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="4:23" x14ac:dyDescent="0.3">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -933,11 +1091,12 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="U15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="Q15" s="2"/>
+      <c r="V15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="4:23" x14ac:dyDescent="0.3">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -949,8 +1108,9 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -962,8 +1122,9 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -975,8 +1136,9 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -988,8 +1150,9 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1001,8 +1164,9 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1014,8 +1178,9 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1027,8 +1192,9 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1040,8 +1206,9 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1053,8 +1220,9 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1066,8 +1234,9 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1079,8 +1248,9 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1092,8 +1262,9 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1105,8 +1276,9 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1118,8 +1290,9 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1131,8 +1304,9 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1144,16 +1318,31 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F3:P4"/>
+    <mergeCell ref="F3:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M6" r:id="rId1" xr:uid="{3ACFAE68-E0D9-4A2A-858C-BCDF1C484125}"/>
     <hyperlink ref="N6" r:id="rId2" xr:uid="{CF529D93-E7A4-4936-A497-8537F84FE069}"/>
     <hyperlink ref="O6" r:id="rId3" xr:uid="{F3A285A9-BE85-47D4-8C41-3FA3B0843668}"/>
+    <hyperlink ref="M7" r:id="rId4" xr:uid="{9E6FEF16-3541-4F09-8B15-DC959D291D2B}"/>
+    <hyperlink ref="N7" r:id="rId5" xr:uid="{532CAA21-944B-4DD0-9070-8598F398BC2E}"/>
+    <hyperlink ref="O7" r:id="rId6" xr:uid="{7208D0FD-979B-4B0E-AB9D-38BA6EF39AAD}"/>
+    <hyperlink ref="N8" r:id="rId7" xr:uid="{D2530E6A-8084-4CFD-BD2C-E569F9BF2BDC}"/>
+    <hyperlink ref="O8" r:id="rId8" xr:uid="{1303FB05-44D0-4634-942F-0975670C6F09}"/>
+    <hyperlink ref="P7" r:id="rId9" xr:uid="{CD757959-7BF9-4406-91DB-A341F946F4E6}"/>
+    <hyperlink ref="P8" r:id="rId10" xr:uid="{FA4EABE4-268E-4EBA-BBF1-D8CC50329415}"/>
+    <hyperlink ref="M8" r:id="rId11" xr:uid="{B2ECE76A-A5F7-4A26-ABE5-0ED396B581B2}"/>
+    <hyperlink ref="N9" r:id="rId12" xr:uid="{30242493-604D-4504-9358-F5F646DFB0C3}"/>
+    <hyperlink ref="N10" r:id="rId13" xr:uid="{D556D3E1-0936-4A93-8806-37A22EA05983}"/>
+    <hyperlink ref="P9" r:id="rId14" xr:uid="{B76AAAAA-1749-45E7-A20E-9CE3138B2462}"/>
+    <hyperlink ref="P10" r:id="rId15" xr:uid="{667A512E-2B45-48C8-B4FE-CA78E9342728}"/>
+    <hyperlink ref="M9" r:id="rId16" xr:uid="{B0576100-4165-4A13-89B4-D4BFA504290A}"/>
+    <hyperlink ref="M10" r:id="rId17" xr:uid="{C15B2DF2-4F86-4190-BD04-2A1C569E8688}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
